--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5078013333333333</v>
+        <v>1.142057</v>
       </c>
       <c r="H2">
-        <v>1.523404</v>
+        <v>3.426171</v>
       </c>
       <c r="I2">
-        <v>0.1375609480357072</v>
+        <v>0.2487160836358648</v>
       </c>
       <c r="J2">
-        <v>0.1375609480357072</v>
+        <v>0.2487160836358647</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.179207666666667</v>
+        <v>6.492744666666667</v>
       </c>
       <c r="N2">
-        <v>15.537623</v>
+        <v>19.478234</v>
       </c>
       <c r="O2">
-        <v>0.2482357269660917</v>
+        <v>0.284509526105254</v>
       </c>
       <c r="P2">
-        <v>0.2482357269660916</v>
+        <v>0.2845095261052539</v>
       </c>
       <c r="Q2">
-        <v>2.630008558743556</v>
+        <v>7.415084495779334</v>
       </c>
       <c r="R2">
-        <v>23.670077028692</v>
+        <v>66.735760462014</v>
       </c>
       <c r="S2">
-        <v>0.03414754193778854</v>
+        <v>0.07076209508999459</v>
       </c>
       <c r="T2">
-        <v>0.03414754193778854</v>
+        <v>0.07076209508999458</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5078013333333333</v>
+        <v>1.142057</v>
       </c>
       <c r="H3">
-        <v>1.523404</v>
+        <v>3.426171</v>
       </c>
       <c r="I3">
-        <v>0.1375609480357072</v>
+        <v>0.2487160836358648</v>
       </c>
       <c r="J3">
-        <v>0.1375609480357072</v>
+        <v>0.2487160836358647</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>12.552921</v>
       </c>
       <c r="O3">
-        <v>0.2005508480919455</v>
+        <v>0.1833546924709238</v>
       </c>
       <c r="P3">
-        <v>0.2005508480919455</v>
+        <v>0.1833546924709237</v>
       </c>
       <c r="Q3">
-        <v>2.124796673676</v>
+        <v>4.778717099499001</v>
       </c>
       <c r="R3">
-        <v>19.123170063084</v>
+        <v>43.00845389549101</v>
       </c>
       <c r="S3">
-        <v>0.02758796479289314</v>
+        <v>0.04560326102762653</v>
       </c>
       <c r="T3">
-        <v>0.02758796479289313</v>
+        <v>0.04560326102762653</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5078013333333333</v>
+        <v>1.142057</v>
       </c>
       <c r="H4">
-        <v>1.523404</v>
+        <v>3.426171</v>
       </c>
       <c r="I4">
-        <v>0.1375609480357072</v>
+        <v>0.2487160836358648</v>
       </c>
       <c r="J4">
-        <v>0.1375609480357072</v>
+        <v>0.2487160836358647</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7938190000000001</v>
+        <v>1.79534</v>
       </c>
       <c r="N4">
-        <v>2.381457</v>
+        <v>5.38602</v>
       </c>
       <c r="O4">
-        <v>0.03804717810655387</v>
+        <v>0.07867109501782452</v>
       </c>
       <c r="P4">
-        <v>0.03804717810655386</v>
+        <v>0.0786710950178245</v>
       </c>
       <c r="Q4">
-        <v>0.4031023466253333</v>
+        <v>2.05038061438</v>
       </c>
       <c r="R4">
-        <v>3.627921119628</v>
+        <v>18.45342552942</v>
       </c>
       <c r="S4">
-        <v>0.005233805890420955</v>
+        <v>0.01956676664817831</v>
       </c>
       <c r="T4">
-        <v>0.005233805890420954</v>
+        <v>0.0195667666481783</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5078013333333333</v>
+        <v>1.142057</v>
       </c>
       <c r="H5">
-        <v>1.523404</v>
+        <v>3.426171</v>
       </c>
       <c r="I5">
-        <v>0.1375609480357072</v>
+        <v>0.2487160836358648</v>
       </c>
       <c r="J5">
-        <v>0.1375609480357072</v>
+        <v>0.2487160836358647</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.70673666666667</v>
+        <v>10.34844233333333</v>
       </c>
       <c r="N5">
-        <v>32.12021</v>
+        <v>31.045327</v>
       </c>
       <c r="O5">
-        <v>0.513166246835409</v>
+        <v>0.4534646864059979</v>
       </c>
       <c r="P5">
-        <v>0.5131662468354089</v>
+        <v>0.4534646864059979</v>
       </c>
       <c r="Q5">
-        <v>5.436895154982222</v>
+        <v>11.81851100587967</v>
       </c>
       <c r="R5">
-        <v>48.93205639484</v>
+        <v>106.366599052917</v>
       </c>
       <c r="S5">
-        <v>0.07059163541460461</v>
+        <v>0.1127839608700653</v>
       </c>
       <c r="T5">
-        <v>0.0705916354146046</v>
+        <v>0.1127839608700653</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.477846</v>
       </c>
       <c r="I6">
-        <v>0.3140439390222109</v>
+        <v>0.2524673276986635</v>
       </c>
       <c r="J6">
-        <v>0.3140439390222109</v>
+        <v>0.2524673276986635</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.179207666666667</v>
+        <v>6.492744666666667</v>
       </c>
       <c r="N6">
-        <v>15.537623</v>
+        <v>19.478234</v>
       </c>
       <c r="O6">
-        <v>0.2482357269660917</v>
+        <v>0.284509526105254</v>
       </c>
       <c r="P6">
-        <v>0.2482357269660916</v>
+        <v>0.2845095261052539</v>
       </c>
       <c r="Q6">
-        <v>6.004162222228667</v>
+        <v>7.526922022662666</v>
       </c>
       <c r="R6">
-        <v>54.037460000058</v>
+        <v>67.742298203964</v>
       </c>
       <c r="S6">
-        <v>0.0779569255024735</v>
+        <v>0.07182935976060661</v>
       </c>
       <c r="T6">
-        <v>0.07795692550247349</v>
+        <v>0.0718293597606066</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.477846</v>
       </c>
       <c r="I7">
-        <v>0.3140439390222109</v>
+        <v>0.2524673276986635</v>
       </c>
       <c r="J7">
-        <v>0.3140439390222109</v>
+        <v>0.2524673276986635</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>12.552921</v>
       </c>
       <c r="O7">
-        <v>0.2005508480919455</v>
+        <v>0.1833546924709238</v>
       </c>
       <c r="P7">
-        <v>0.2005508480919455</v>
+        <v>0.1833546924709237</v>
       </c>
       <c r="Q7">
         <v>4.850791787574</v>
@@ -883,10 +883,10 @@
         <v>43.657126088166</v>
       </c>
       <c r="S7">
-        <v>0.06298177830903963</v>
+        <v>0.04629106922914437</v>
       </c>
       <c r="T7">
-        <v>0.06298177830903963</v>
+        <v>0.04629106922914437</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.477846</v>
       </c>
       <c r="I8">
-        <v>0.3140439390222109</v>
+        <v>0.2524673276986635</v>
       </c>
       <c r="J8">
-        <v>0.3140439390222109</v>
+        <v>0.2524673276986635</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7938190000000001</v>
+        <v>1.79534</v>
       </c>
       <c r="N8">
-        <v>2.381457</v>
+        <v>5.38602</v>
       </c>
       <c r="O8">
-        <v>0.03804717810655387</v>
+        <v>0.07867109501782452</v>
       </c>
       <c r="P8">
-        <v>0.03804717810655386</v>
+        <v>0.0786710950178245</v>
       </c>
       <c r="Q8">
-        <v>0.920260077958</v>
+        <v>2.08130534588</v>
       </c>
       <c r="R8">
-        <v>8.282340701622001</v>
+        <v>18.73174811292</v>
       </c>
       <c r="S8">
-        <v>0.0119484856812618</v>
+        <v>0.0198618811262778</v>
       </c>
       <c r="T8">
-        <v>0.0119484856812618</v>
+        <v>0.01986188112627779</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.477846</v>
       </c>
       <c r="I9">
-        <v>0.3140439390222109</v>
+        <v>0.2524673276986635</v>
       </c>
       <c r="J9">
-        <v>0.3140439390222109</v>
+        <v>0.2524673276986635</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.70673666666667</v>
+        <v>10.34844233333333</v>
       </c>
       <c r="N9">
-        <v>32.12021</v>
+        <v>31.045327</v>
       </c>
       <c r="O9">
-        <v>0.513166246835409</v>
+        <v>0.4534646864059979</v>
       </c>
       <c r="P9">
-        <v>0.5131662468354089</v>
+        <v>0.4534646864059979</v>
       </c>
       <c r="Q9">
-        <v>12.41212709640667</v>
+        <v>11.99676292507133</v>
       </c>
       <c r="R9">
-        <v>111.70914386766</v>
+        <v>107.970866325642</v>
       </c>
       <c r="S9">
-        <v>0.161156749529436</v>
+        <v>0.1144850175826347</v>
       </c>
       <c r="T9">
-        <v>0.161156749529436</v>
+        <v>0.1144850175826347</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4233086666666666</v>
+        <v>0.894276</v>
       </c>
       <c r="H10">
-        <v>1.269926</v>
+        <v>2.682828</v>
       </c>
       <c r="I10">
-        <v>0.1146722894880108</v>
+        <v>0.1947545739044081</v>
       </c>
       <c r="J10">
-        <v>0.1146722894880108</v>
+        <v>0.194754573904408</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.179207666666667</v>
+        <v>6.492744666666667</v>
       </c>
       <c r="N10">
-        <v>15.537623</v>
+        <v>19.478234</v>
       </c>
       <c r="O10">
-        <v>0.2482357269660917</v>
+        <v>0.284509526105254</v>
       </c>
       <c r="P10">
-        <v>0.2482357269660916</v>
+        <v>0.2845095261052539</v>
       </c>
       <c r="Q10">
-        <v>2.192403491766444</v>
+        <v>5.806305729528</v>
       </c>
       <c r="R10">
-        <v>19.731631425898</v>
+        <v>52.256751565752</v>
       </c>
       <c r="S10">
-        <v>0.02846575914392246</v>
+        <v>0.0554095315283738</v>
       </c>
       <c r="T10">
-        <v>0.02846575914392246</v>
+        <v>0.05540953152837378</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4233086666666666</v>
+        <v>0.894276</v>
       </c>
       <c r="H11">
-        <v>1.269926</v>
+        <v>2.682828</v>
       </c>
       <c r="I11">
-        <v>0.1146722894880108</v>
+        <v>0.1947545739044081</v>
       </c>
       <c r="J11">
-        <v>0.1146722894880108</v>
+        <v>0.194754573904408</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>12.552921</v>
       </c>
       <c r="O11">
-        <v>0.2005508480919455</v>
+        <v>0.1833546924709238</v>
       </c>
       <c r="P11">
-        <v>0.2005508480919455</v>
+        <v>0.1833546924709237</v>
       </c>
       <c r="Q11">
-        <v>1.771253417094</v>
+        <v>3.741925326732</v>
       </c>
       <c r="R11">
-        <v>15.941280753846</v>
+        <v>33.677327940588</v>
       </c>
       <c r="S11">
-        <v>0.02299762490946565</v>
+        <v>0.03570916500554853</v>
       </c>
       <c r="T11">
-        <v>0.02299762490946564</v>
+        <v>0.03570916500554852</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4233086666666666</v>
+        <v>0.894276</v>
       </c>
       <c r="H12">
-        <v>1.269926</v>
+        <v>2.682828</v>
       </c>
       <c r="I12">
-        <v>0.1146722894880108</v>
+        <v>0.1947545739044081</v>
       </c>
       <c r="J12">
-        <v>0.1146722894880108</v>
+        <v>0.194754573904408</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7938190000000001</v>
+        <v>1.79534</v>
       </c>
       <c r="N12">
-        <v>2.381457</v>
+        <v>5.38602</v>
       </c>
       <c r="O12">
-        <v>0.03804717810655387</v>
+        <v>0.07867109501782452</v>
       </c>
       <c r="P12">
-        <v>0.03804717810655386</v>
+        <v>0.0786710950178245</v>
       </c>
       <c r="Q12">
-        <v>0.3360304624646667</v>
+        <v>1.60552947384</v>
       </c>
       <c r="R12">
-        <v>3.024274162182</v>
+        <v>14.44976526456</v>
       </c>
       <c r="S12">
-        <v>0.00436295702203665</v>
+        <v>0.01532155558878961</v>
       </c>
       <c r="T12">
-        <v>0.004362957022036649</v>
+        <v>0.01532155558878961</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4233086666666666</v>
+        <v>0.894276</v>
       </c>
       <c r="H13">
-        <v>1.269926</v>
+        <v>2.682828</v>
       </c>
       <c r="I13">
-        <v>0.1146722894880108</v>
+        <v>0.1947545739044081</v>
       </c>
       <c r="J13">
-        <v>0.1146722894880108</v>
+        <v>0.194754573904408</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.70673666666667</v>
+        <v>10.34844233333333</v>
       </c>
       <c r="N13">
-        <v>32.12021</v>
+        <v>31.045327</v>
       </c>
       <c r="O13">
-        <v>0.513166246835409</v>
+        <v>0.4534646864059979</v>
       </c>
       <c r="P13">
-        <v>0.5131662468354089</v>
+        <v>0.4534646864059979</v>
       </c>
       <c r="Q13">
-        <v>4.532254422717777</v>
+        <v>9.254363616083999</v>
       </c>
       <c r="R13">
-        <v>40.79028980446</v>
+        <v>83.28927254475599</v>
       </c>
       <c r="S13">
-        <v>0.058845948412586</v>
+        <v>0.08831432178169614</v>
       </c>
       <c r="T13">
-        <v>0.05884594841258599</v>
+        <v>0.08831432178169613</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.601072333333333</v>
+        <v>1.396195</v>
       </c>
       <c r="H14">
-        <v>4.803217</v>
+        <v>4.188585</v>
       </c>
       <c r="I14">
-        <v>0.433722823454071</v>
+        <v>0.3040620147610637</v>
       </c>
       <c r="J14">
-        <v>0.433722823454071</v>
+        <v>0.3040620147610637</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.179207666666667</v>
+        <v>6.492744666666667</v>
       </c>
       <c r="N14">
-        <v>15.537623</v>
+        <v>19.478234</v>
       </c>
       <c r="O14">
-        <v>0.2482357269660917</v>
+        <v>0.284509526105254</v>
       </c>
       <c r="P14">
-        <v>0.2482357269660916</v>
+        <v>0.2845095261052539</v>
       </c>
       <c r="Q14">
-        <v>8.292286103687889</v>
+        <v>9.065137639876665</v>
       </c>
       <c r="R14">
-        <v>74.630574933191</v>
+        <v>81.58623875889</v>
       </c>
       <c r="S14">
-        <v>0.1076655003819072</v>
+        <v>0.08650853972627898</v>
       </c>
       <c r="T14">
-        <v>0.1076655003819071</v>
+        <v>0.08650853972627896</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.601072333333333</v>
+        <v>1.396195</v>
       </c>
       <c r="H15">
-        <v>4.803217</v>
+        <v>4.188585</v>
       </c>
       <c r="I15">
-        <v>0.433722823454071</v>
+        <v>0.3040620147610637</v>
       </c>
       <c r="J15">
-        <v>0.433722823454071</v>
+        <v>0.3040620147610637</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>12.552921</v>
       </c>
       <c r="O15">
-        <v>0.2005508480919455</v>
+        <v>0.1833546924709238</v>
       </c>
       <c r="P15">
-        <v>0.2005508480919455</v>
+        <v>0.1833546924709237</v>
       </c>
       <c r="Q15">
-        <v>6.699378171873001</v>
+        <v>5.842108511865</v>
       </c>
       <c r="R15">
-        <v>60.294403546857</v>
+        <v>52.57897660678501</v>
       </c>
       <c r="S15">
-        <v>0.08698348008054711</v>
+        <v>0.05575119720860432</v>
       </c>
       <c r="T15">
-        <v>0.08698348008054708</v>
+        <v>0.05575119720860431</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.601072333333333</v>
+        <v>1.396195</v>
       </c>
       <c r="H16">
-        <v>4.803217</v>
+        <v>4.188585</v>
       </c>
       <c r="I16">
-        <v>0.433722823454071</v>
+        <v>0.3040620147610637</v>
       </c>
       <c r="J16">
-        <v>0.433722823454071</v>
+        <v>0.3040620147610637</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7938190000000001</v>
+        <v>1.79534</v>
       </c>
       <c r="N16">
-        <v>2.381457</v>
+        <v>5.38602</v>
       </c>
       <c r="O16">
-        <v>0.03804717810655387</v>
+        <v>0.07867109501782452</v>
       </c>
       <c r="P16">
-        <v>0.03804717810655386</v>
+        <v>0.0786710950178245</v>
       </c>
       <c r="Q16">
-        <v>1.270961638574333</v>
+        <v>2.5066447313</v>
       </c>
       <c r="R16">
-        <v>11.438654747169</v>
+        <v>22.5598025817</v>
       </c>
       <c r="S16">
-        <v>0.01650192951283446</v>
+        <v>0.0239208916545788</v>
       </c>
       <c r="T16">
-        <v>0.01650192951283446</v>
+        <v>0.0239208916545788</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.601072333333333</v>
+        <v>1.396195</v>
       </c>
       <c r="H17">
-        <v>4.803217</v>
+        <v>4.188585</v>
       </c>
       <c r="I17">
-        <v>0.433722823454071</v>
+        <v>0.3040620147610637</v>
       </c>
       <c r="J17">
-        <v>0.433722823454071</v>
+        <v>0.3040620147610637</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.70673666666667</v>
+        <v>10.34844233333333</v>
       </c>
       <c r="N17">
-        <v>32.12021</v>
+        <v>31.045327</v>
       </c>
       <c r="O17">
-        <v>0.513166246835409</v>
+        <v>0.4534646864059979</v>
       </c>
       <c r="P17">
-        <v>0.5131662468354089</v>
+        <v>0.4534646864059979</v>
       </c>
       <c r="Q17">
-        <v>17.14225985728556</v>
+        <v>14.44844344358833</v>
       </c>
       <c r="R17">
-        <v>154.28033871557</v>
+        <v>130.035990992295</v>
       </c>
       <c r="S17">
-        <v>0.2225719134787824</v>
+        <v>0.1378813861716016</v>
       </c>
       <c r="T17">
-        <v>0.2225719134787823</v>
+        <v>0.1378813861716016</v>
       </c>
     </row>
   </sheetData>
